--- a/inst/extdata/Lakes380Cores.xlsx
+++ b/inst/extdata/Lakes380Cores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawthron99.sharepoint.com/sites/Lakes380/Lakes380 Shared Files 2/Shared Working Files/Pollen data compilation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3468" documentId="13_ncr:1_{9AF74E07-5143-4F63-9881-23BF19F4B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB614CE-CF9C-4C2A-BA64-551B5FD1A0AB}"/>
+  <xr:revisionPtr revIDLastSave="3470" documentId="13_ncr:1_{9AF74E07-5143-4F63-9881-23BF19F4B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46121BA5-E98D-49E3-A61D-EBEE22847CE8}"/>
   <bookViews>
     <workbookView xWindow="-19605" yWindow="4605" windowWidth="18090" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3144,13 +3144,13 @@
     <t>L380_ROTON2_LC4U_1</t>
   </si>
   <si>
+    <t>A half sampled - no sediment remaining, B half described, wrapped, vacuum sealed and placed in freezer (22/11/2019)</t>
+  </si>
+  <si>
+    <t>L380_ROTON2_LC4U_2</t>
+  </si>
+  <si>
     <t>1.5 cm gap at top of core</t>
-  </si>
-  <si>
-    <t>A half sampled - no sediment remaining, B half described, wrapped, vacuum sealed and placed in freezer (22/11/2019)</t>
-  </si>
-  <si>
-    <t>L380_ROTON2_LC4U_2</t>
   </si>
   <si>
     <t>A half described and sampled - no sediment remaining, B half wrapped and placed in fridge (25/11/2019)</t>
@@ -9926,8 +9926,8 @@
   <dimension ref="A1:X1466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M1059" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="R1083" sqref="R1083"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R448" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S455" sqref="S455:U455"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -27647,17 +27647,11 @@
       <c r="R455" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="S455" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="T455" s="50">
-        <v>3</v>
-      </c>
-      <c r="U455" s="13" t="s">
+      <c r="S455" s="50"/>
+      <c r="T455" s="50"/>
+      <c r="U455" s="13"/>
+      <c r="V455" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="V455" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="W455" s="9">
         <v>10</v>
@@ -27674,7 +27668,7 @@
         <v>1005</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E456" s="7">
         <v>0</v>
@@ -27713,9 +27707,15 @@
       <c r="R456" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="S456" s="50"/>
-      <c r="T456" s="50"/>
-      <c r="U456" s="13"/>
+      <c r="S456" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="T456" s="50">
+        <v>3</v>
+      </c>
+      <c r="U456" s="13" t="s">
+        <v>1018</v>
+      </c>
       <c r="V456" s="6" t="s">
         <v>1019</v>
       </c>
@@ -65959,24 +65959,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
-    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100509933DE4E18D742BF077FC09341733F" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbfec929b0c2dc5d1a2f1df8704208d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5f6b1945-c4e1-49f9-9f6e-e50035f04b8f" xmlns:ns3="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd65c85cd32e0066f09b6320aed01c31" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -66318,6 +66300,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
+    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -66328,11 +66328,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179E103B-F058-4CB9-BEA1-5771FF1ED3E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179E103B-F058-4CB9-BEA1-5771FF1ED3E8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/inst/extdata/Lakes380Cores.xlsx
+++ b/inst/extdata/Lakes380Cores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawthron99.sharepoint.com/sites/Lakes380/Lakes380 Shared Files 2/Shared Working Files/Pollen data compilation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A9582C-5AAF-4931-A2FC-A0DD87F159AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6862881-C295-4F41-8343-D0516CD472D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19605" yWindow="4605" windowWidth="18090" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9899,8 +9899,8 @@
   <dimension ref="A1:X1466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H796" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M825" sqref="M825"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I477" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L494" sqref="L494"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -29107,7 +29107,9 @@
       <c r="J493" s="50">
         <v>11</v>
       </c>
-      <c r="K493" s="50"/>
+      <c r="K493" s="50">
+        <v>98</v>
+      </c>
       <c r="L493" s="10">
         <v>0</v>
       </c>
@@ -29166,7 +29168,9 @@
       <c r="J494" s="50">
         <v>1</v>
       </c>
-      <c r="K494" s="50"/>
+      <c r="K494" s="50">
+        <v>70</v>
+      </c>
       <c r="O494" s="13"/>
       <c r="P494" s="13"/>
       <c r="Q494" s="13"/>
@@ -30958,17 +30962,35 @@
         <v>1</v>
       </c>
       <c r="I542" s="8"/>
-      <c r="J542" s="50"/>
-      <c r="K542" s="50"/>
-      <c r="L542" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M542" s="22"/>
-      <c r="N542" s="22"/>
-      <c r="O542" s="23"/>
-      <c r="P542" s="23"/>
-      <c r="Q542" s="23"/>
-      <c r="R542" s="60"/>
+      <c r="J542" s="50">
+        <v>9</v>
+      </c>
+      <c r="K542" s="50">
+        <v>98</v>
+      </c>
+      <c r="L542" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M542" s="10">
+        <v>9.4124119999999998</v>
+      </c>
+      <c r="N542" s="13">
+        <f>M542-L542</f>
+        <v>9.1124119999999991</v>
+      </c>
+      <c r="O542" s="47">
+        <f>N542-W542</f>
+        <v>0.61241199999999907</v>
+      </c>
+      <c r="P542" s="13">
+        <v>99.148880000000005</v>
+      </c>
+      <c r="Q542" s="13">
+        <v>99.8</v>
+      </c>
+      <c r="R542" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="S542" s="50"/>
       <c r="T542" s="50"/>
       <c r="U542" s="23"/>
@@ -31005,11 +31027,32 @@
         <v>0.83</v>
       </c>
       <c r="I543" s="8"/>
-      <c r="J543" s="50"/>
-      <c r="K543" s="50"/>
-      <c r="O543" s="13"/>
-      <c r="P543" s="13"/>
-      <c r="Q543" s="13"/>
+      <c r="J543" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K543" s="50">
+        <v>78</v>
+      </c>
+      <c r="L543" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="M543" s="10">
+        <v>0.89599399999999996</v>
+      </c>
+      <c r="N543" s="13">
+        <f>M543-L543</f>
+        <v>0.64599399999999996</v>
+      </c>
+      <c r="O543" s="47">
+        <f>N543-W543</f>
+        <v>0.64599399999999996</v>
+      </c>
+      <c r="P543" s="13">
+        <v>81.971729999999994</v>
+      </c>
+      <c r="Q543" s="13">
+        <v>82.6</v>
+      </c>
       <c r="R543" s="44"/>
       <c r="S543" s="50"/>
       <c r="T543" s="50"/>
@@ -31046,6 +31089,7 @@
       <c r="I544" s="3"/>
       <c r="J544" s="54"/>
       <c r="K544" s="54"/>
+      <c r="O544"/>
       <c r="S544" s="54"/>
       <c r="T544" s="54"/>
       <c r="V544" s="5" t="s">
@@ -31297,17 +31341,35 @@
         <v>1</v>
       </c>
       <c r="I551" s="8"/>
-      <c r="J551" s="50"/>
-      <c r="K551" s="50"/>
-      <c r="L551" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M551" s="22"/>
-      <c r="N551" s="22"/>
-      <c r="O551" s="23"/>
-      <c r="P551" s="23"/>
-      <c r="Q551" s="23"/>
-      <c r="R551" s="60"/>
+      <c r="J551" s="50">
+        <v>17</v>
+      </c>
+      <c r="K551" s="50">
+        <v>98</v>
+      </c>
+      <c r="L551" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="M551" s="10">
+        <v>17.27861</v>
+      </c>
+      <c r="N551" s="13">
+        <f>M551-L551</f>
+        <v>17.078610000000001</v>
+      </c>
+      <c r="O551" s="47">
+        <f>N551-W551</f>
+        <v>0.57861000000000118</v>
+      </c>
+      <c r="P551" s="13">
+        <v>99.321749999999994</v>
+      </c>
+      <c r="Q551" s="13">
+        <v>99.9</v>
+      </c>
+      <c r="R551" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="S551" s="50"/>
       <c r="T551" s="50"/>
       <c r="U551" s="23"/>
@@ -31344,11 +31406,32 @@
         <v>0.47</v>
       </c>
       <c r="I552" s="8"/>
-      <c r="J552" s="50"/>
-      <c r="K552" s="50"/>
-      <c r="O552" s="13"/>
-      <c r="P552" s="13"/>
-      <c r="Q552" s="13"/>
+      <c r="J552" s="50">
+        <v>1</v>
+      </c>
+      <c r="K552" s="50">
+        <v>45</v>
+      </c>
+      <c r="L552" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="M552" s="10">
+        <v>0.38419199999999998</v>
+      </c>
+      <c r="N552" s="13">
+        <f>M552-L552</f>
+        <v>0.13419199999999998</v>
+      </c>
+      <c r="O552" s="47">
+        <f>N552-W552</f>
+        <v>0.13419199999999998</v>
+      </c>
+      <c r="P552" s="13">
+        <v>46.802579999999999</v>
+      </c>
+      <c r="Q552" s="13">
+        <v>47.05</v>
+      </c>
       <c r="R552" s="44"/>
       <c r="S552" s="50"/>
       <c r="T552" s="50"/>
@@ -31454,8 +31537,12 @@
         <v>1</v>
       </c>
       <c r="I555" s="8"/>
-      <c r="J555" s="50"/>
-      <c r="K555" s="50"/>
+      <c r="J555" s="50">
+        <v>11</v>
+      </c>
+      <c r="K555" s="50">
+        <v>99</v>
+      </c>
       <c r="L555" s="10">
         <v>0.15</v>
       </c>
@@ -31513,8 +31600,12 @@
         <v>0.31</v>
       </c>
       <c r="I556" s="8"/>
-      <c r="J556" s="50"/>
-      <c r="K556" s="50"/>
+      <c r="J556" s="50">
+        <v>1</v>
+      </c>
+      <c r="K556" s="50">
+        <v>29</v>
+      </c>
       <c r="L556" s="10">
         <v>0.15</v>
       </c>
@@ -32622,7 +32713,9 @@
       <c r="J585" s="50">
         <v>10</v>
       </c>
-      <c r="K585" s="50"/>
+      <c r="K585" s="50">
+        <v>99</v>
+      </c>
       <c r="L585" s="10">
         <v>0</v>
       </c>
@@ -32685,7 +32778,9 @@
       <c r="J586" s="50">
         <v>1</v>
       </c>
-      <c r="K586" s="50"/>
+      <c r="K586" s="50">
+        <v>83</v>
+      </c>
       <c r="L586" s="10">
         <v>0</v>
       </c>
@@ -65942,33 +66037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
-    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100509933DE4E18D742BF077FC09341733F" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbfec929b0c2dc5d1a2f1df8704208d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5f6b1945-c4e1-49f9-9f6e-e50035f04b8f" xmlns:ns3="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd65c85cd32e0066f09b6320aed01c31" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -66310,14 +66378,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
+    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37608445-6F68-40B6-A1C0-AC0FD2B43DD8}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179E103B-F058-4CB9-BEA1-5771FF1ED3E8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
 </file>
--- a/inst/extdata/Lakes380Cores.xlsx
+++ b/inst/extdata/Lakes380Cores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25301"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawthron99.sharepoint.com/sites/Lakes380/Lakes380 Shared Files 2/Shared Working Files/Pollen data compilation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4642" documentId="13_ncr:1_{9AF74E07-5143-4F63-9881-23BF19F4B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E495634-12E2-4B0F-AACC-600A893BB326}"/>
+  <xr:revisionPtr revIDLastSave="4699" documentId="13_ncr:1_{9AF74E07-5143-4F63-9881-23BF19F4B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B19AE91-51BF-4A50-A40F-328A9A3FEDF1}"/>
   <bookViews>
     <workbookView xWindow="-19605" yWindow="4605" windowWidth="18090" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7416" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7420" uniqueCount="3061">
   <si>
     <t>Regions::Region Name</t>
   </si>
@@ -9542,10 +9542,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9895,8 +9895,8 @@
   <dimension ref="A1:X1467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K1171" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N1186" sqref="N1186"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J305" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M312" sqref="M312:Q313"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -21324,7 +21324,7 @@
       <c r="I277" s="49"/>
       <c r="J277" s="49"/>
       <c r="K277" s="49"/>
-      <c r="M277" s="65"/>
+      <c r="M277" s="14"/>
       <c r="S277" s="49"/>
       <c r="T277" s="49"/>
       <c r="V277" s="5" t="s">
@@ -22783,77 +22783,130 @@
         <v>711</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="12.75">
-      <c r="A312" s="5" t="s">
+    <row r="312" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A312" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="C312" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="D312" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E312" s="2">
-        <v>0</v>
-      </c>
-      <c r="F312" s="2">
-        <v>1</v>
-      </c>
-      <c r="G312" s="2">
-        <v>1</v>
-      </c>
-      <c r="H312" s="3">
-        <v>1</v>
-      </c>
-      <c r="I312" s="49"/>
-      <c r="J312" s="49"/>
-      <c r="K312" s="49"/>
-      <c r="L312" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="S312" s="49"/>
-      <c r="T312" s="49"/>
-      <c r="V312" s="5" t="s">
+      <c r="E312" s="7">
+        <v>0</v>
+      </c>
+      <c r="F312" s="7">
+        <v>1</v>
+      </c>
+      <c r="G312" s="7">
+        <v>1</v>
+      </c>
+      <c r="H312" s="8">
+        <v>1</v>
+      </c>
+      <c r="I312" s="45"/>
+      <c r="J312" s="45">
+        <v>12</v>
+      </c>
+      <c r="K312" s="45">
+        <v>98</v>
+      </c>
+      <c r="L312" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="M312" s="13">
+        <v>11.690965289999999</v>
+      </c>
+      <c r="N312" s="13">
+        <f t="shared" ref="N312:N313" si="19">M312-L312</f>
+        <v>11.49096529</v>
+      </c>
+      <c r="O312" s="13">
+        <f t="shared" ref="O312:O313" si="20">J312-M312</f>
+        <v>0.3090347100000006</v>
+      </c>
+      <c r="P312" s="47">
+        <v>99.229132129999996</v>
+      </c>
+      <c r="Q312" s="13">
+        <v>99.7</v>
+      </c>
+      <c r="R312" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S312" s="45"/>
+      <c r="T312" s="45"/>
+      <c r="U312" s="13"/>
+      <c r="V312" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="W312" s="4">
+      <c r="W312" s="9">
         <v>11.5</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="12.75">
-      <c r="A313" s="5" t="s">
+    <row r="313" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A313" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="B313" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="C313" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="D313" s="5" t="s">
+      <c r="D313" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E313" s="2">
-        <v>0</v>
-      </c>
-      <c r="F313" s="2">
+      <c r="E313" s="7">
+        <v>0</v>
+      </c>
+      <c r="F313" s="7">
         <v>0.624</v>
       </c>
-      <c r="G313" s="2">
+      <c r="G313" s="7">
         <v>0.624</v>
       </c>
-      <c r="H313" s="3">
+      <c r="H313" s="8">
         <v>0.62</v>
       </c>
-      <c r="I313" s="49"/>
-      <c r="J313" s="49"/>
-      <c r="K313" s="49"/>
-      <c r="S313" s="49"/>
-      <c r="T313" s="49"/>
-      <c r="V313" s="5" t="s">
+      <c r="I313" s="45"/>
+      <c r="J313" s="45">
+        <v>1</v>
+      </c>
+      <c r="K313" s="45">
+        <v>60</v>
+      </c>
+      <c r="L313" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="M313" s="13">
+        <v>0.65998436900000002</v>
+      </c>
+      <c r="N313" s="13">
+        <f t="shared" si="19"/>
+        <v>0.50998436899999999</v>
+      </c>
+      <c r="O313" s="13">
+        <f t="shared" si="20"/>
+        <v>0.34001563099999998</v>
+      </c>
+      <c r="P313" s="47">
+        <v>61.768541630000001</v>
+      </c>
+      <c r="Q313" s="13">
+        <v>62.15</v>
+      </c>
+      <c r="R313" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S313" s="45"/>
+      <c r="T313" s="45"/>
+      <c r="U313" s="13"/>
+      <c r="V313" s="6" t="s">
         <v>714</v>
       </c>
     </row>
@@ -23378,11 +23431,11 @@
         <v>14.98915895</v>
       </c>
       <c r="N326" s="13">
-        <f t="shared" ref="N326:N327" si="19">M326-L326</f>
+        <f t="shared" ref="N326:N327" si="21">M326-L326</f>
         <v>14.98915895</v>
       </c>
       <c r="O326" s="13">
-        <f t="shared" ref="O326:O327" si="20">J326-M326</f>
+        <f t="shared" ref="O326:O327" si="22">J326-M326</f>
         <v>-0.9891589500000002</v>
       </c>
       <c r="P326" s="47">
@@ -23443,11 +23496,11 @@
         <v>1.028318968</v>
       </c>
       <c r="N327" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.72831896799999996</v>
       </c>
       <c r="O327" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.9716810319999993</v>
       </c>
       <c r="P327" s="13">
@@ -23759,77 +23812,130 @@
         <v>758</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="12.75">
-      <c r="A336" s="5" t="s">
+    <row r="336" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A336" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="B336" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="D336" s="5" t="s">
+      <c r="D336" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E336" s="2">
-        <v>0</v>
-      </c>
-      <c r="F336" s="2">
-        <v>1</v>
-      </c>
-      <c r="G336" s="2">
-        <v>1</v>
-      </c>
-      <c r="H336" s="3">
-        <v>1</v>
-      </c>
-      <c r="I336" s="49"/>
-      <c r="J336" s="49"/>
-      <c r="K336" s="49"/>
-      <c r="L336" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="S336" s="49"/>
-      <c r="T336" s="49"/>
-      <c r="V336" s="5" t="s">
+      <c r="E336" s="7">
+        <v>0</v>
+      </c>
+      <c r="F336" s="7">
+        <v>1</v>
+      </c>
+      <c r="G336" s="7">
+        <v>1</v>
+      </c>
+      <c r="H336" s="8">
+        <v>1</v>
+      </c>
+      <c r="I336" s="45"/>
+      <c r="J336" s="45">
+        <v>13</v>
+      </c>
+      <c r="K336" s="45">
+        <v>98</v>
+      </c>
+      <c r="L336" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="M336" s="13">
+        <v>12.70091</v>
+      </c>
+      <c r="N336" s="13">
+        <f t="shared" ref="N336" si="23">M336-L336</f>
+        <v>12.55091</v>
+      </c>
+      <c r="O336" s="13">
+        <f t="shared" ref="O336" si="24">J336-M336</f>
+        <v>0.29908999999999963</v>
+      </c>
+      <c r="P336" s="13">
+        <v>99.652791890000003</v>
+      </c>
+      <c r="Q336" s="13">
+        <v>99.8</v>
+      </c>
+      <c r="R336" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S336" s="45"/>
+      <c r="T336" s="45"/>
+      <c r="U336" s="13"/>
+      <c r="V336" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="W336" s="4">
+      <c r="W336" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="12.75">
-      <c r="A337" s="5" t="s">
+    <row r="337" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A337" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="B337" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="D337" s="5" t="s">
+      <c r="D337" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E337" s="2">
-        <v>0</v>
-      </c>
-      <c r="F337" s="2">
+      <c r="E337" s="7">
+        <v>0</v>
+      </c>
+      <c r="F337" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="G337" s="2">
+      <c r="G337" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H337" s="3">
+      <c r="H337" s="8">
         <v>0.6</v>
       </c>
-      <c r="I337" s="49"/>
-      <c r="J337" s="49"/>
-      <c r="K337" s="49"/>
-      <c r="S337" s="49"/>
-      <c r="T337" s="49"/>
-      <c r="V337" s="5" t="s">
+      <c r="I337" s="45"/>
+      <c r="J337" s="45">
+        <v>1</v>
+      </c>
+      <c r="K337" s="45">
+        <v>59</v>
+      </c>
+      <c r="L337" s="66">
+        <v>0</v>
+      </c>
+      <c r="M337" s="13">
+        <v>0.88985447399999995</v>
+      </c>
+      <c r="N337" s="13">
+        <f t="shared" ref="N337" si="25">M337-L337</f>
+        <v>0.88985447399999995</v>
+      </c>
+      <c r="O337" s="13">
+        <f t="shared" ref="O337" si="26">J337-M337</f>
+        <v>0.11014552600000005</v>
+      </c>
+      <c r="P337" s="13">
+        <v>59.560057319999999</v>
+      </c>
+      <c r="Q337" s="13">
+        <v>59.65</v>
+      </c>
+      <c r="R337" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S337" s="45"/>
+      <c r="T337" s="45"/>
+      <c r="U337" s="13"/>
+      <c r="V337" s="6" t="s">
         <v>683</v>
       </c>
     </row>
@@ -23978,74 +24084,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="12.75">
-      <c r="A342" s="5" t="s">
+    <row r="342" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A342" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B342" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C342" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="D342" s="5" t="s">
+      <c r="D342" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="E342" s="2">
-        <v>0</v>
-      </c>
-      <c r="F342" s="2">
-        <v>1</v>
-      </c>
-      <c r="G342" s="2">
-        <v>1</v>
-      </c>
-      <c r="H342" s="3">
-        <v>1</v>
-      </c>
-      <c r="I342" s="49"/>
-      <c r="J342" s="49"/>
-      <c r="K342" s="49"/>
-      <c r="S342" s="49"/>
-      <c r="T342" s="49"/>
-      <c r="V342" s="5" t="s">
+      <c r="E342" s="7">
+        <v>0</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1</v>
+      </c>
+      <c r="G342" s="7">
+        <v>1</v>
+      </c>
+      <c r="H342" s="8">
+        <v>1</v>
+      </c>
+      <c r="I342" s="45"/>
+      <c r="J342" s="45">
+        <v>14</v>
+      </c>
+      <c r="K342" s="45">
+        <v>98</v>
+      </c>
+      <c r="L342" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="M342" s="13">
+        <v>14.32676</v>
+      </c>
+      <c r="N342" s="13">
+        <f t="shared" ref="N342:N343" si="27">M342-L342</f>
+        <v>14.226760000000001</v>
+      </c>
+      <c r="O342" s="13">
+        <f t="shared" ref="O342:O343" si="28">J342-M342</f>
+        <v>-0.32676000000000016</v>
+      </c>
+      <c r="P342" s="13">
+        <v>99.475328680000004</v>
+      </c>
+      <c r="Q342" s="13">
+        <v>99.7</v>
+      </c>
+      <c r="R342" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S342" s="45"/>
+      <c r="T342" s="45"/>
+      <c r="U342" s="13"/>
+      <c r="V342" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="W342" s="4">
+      <c r="W342" s="9">
         <v>13.5</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="12.75">
-      <c r="A343" s="5" t="s">
+    <row r="343" spans="1:23" s="10" customFormat="1" ht="12.75">
+      <c r="A343" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="B343" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="C343" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="D343" s="5" t="s">
+      <c r="D343" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E343" s="2">
-        <v>0</v>
-      </c>
-      <c r="F343" s="2">
+      <c r="E343" s="7">
+        <v>0</v>
+      </c>
+      <c r="F343" s="7">
         <v>0.4</v>
       </c>
-      <c r="G343" s="2">
+      <c r="G343" s="7">
         <v>0.4</v>
       </c>
-      <c r="H343" s="3">
+      <c r="H343" s="8">
         <v>0.39500000000000002</v>
       </c>
-      <c r="I343" s="49"/>
-      <c r="J343" s="49"/>
-      <c r="K343" s="49"/>
-      <c r="S343" s="49"/>
-      <c r="T343" s="49"/>
-      <c r="V343" s="5" t="s">
+      <c r="I343" s="45"/>
+      <c r="J343" s="45">
+        <v>1</v>
+      </c>
+      <c r="K343" s="45">
+        <v>38</v>
+      </c>
+      <c r="L343" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="M343" s="13">
+        <v>0.76477551499999996</v>
+      </c>
+      <c r="N343" s="13">
+        <f t="shared" si="27"/>
+        <v>0.56477551500000001</v>
+      </c>
+      <c r="O343" s="13">
+        <f t="shared" si="28"/>
+        <v>0.23522448500000004</v>
+      </c>
+      <c r="P343" s="13">
+        <v>39.258706500000002</v>
+      </c>
+      <c r="Q343" s="13">
+        <v>39.35</v>
+      </c>
+      <c r="R343" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S343" s="45"/>
+      <c r="T343" s="45"/>
+      <c r="U343" s="13"/>
+      <c r="V343" s="6" t="s">
         <v>776</v>
       </c>
     </row>
@@ -27627,11 +27789,11 @@
         <v>0.33950221400000002</v>
       </c>
       <c r="N434" s="13">
-        <f t="shared" ref="N434:N435" si="21">M434-L434</f>
+        <f t="shared" ref="N434:N435" si="29">M434-L434</f>
         <v>0.23950221400000002</v>
       </c>
       <c r="O434" s="13">
-        <f t="shared" ref="O434:O435" si="22">J434-M434</f>
+        <f t="shared" ref="O434:O435" si="30">J434-M434</f>
         <v>0.66049778599999998</v>
       </c>
       <c r="P434" s="13">
@@ -31655,11 +31817,11 @@
         <v>11.109292870000001</v>
       </c>
       <c r="N534" s="13">
-        <f t="shared" ref="N534:N535" si="23">M534-L534</f>
+        <f t="shared" ref="N534:N535" si="31">M534-L534</f>
         <v>11.009292870000001</v>
       </c>
       <c r="O534" s="13">
-        <f t="shared" ref="O534:O535" si="24">J534-M534</f>
+        <f t="shared" ref="O534:O535" si="32">J534-M534</f>
         <v>-0.10929287000000087</v>
       </c>
       <c r="P534" s="13">
@@ -31720,11 +31882,11 @@
         <v>0.26166366000000002</v>
       </c>
       <c r="N535" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.11166366000000003</v>
       </c>
       <c r="O535" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0.73833634000000004</v>
       </c>
       <c r="P535" s="13">
@@ -33803,11 +33965,11 @@
         <v>9.3428039999999992</v>
       </c>
       <c r="N585" s="13">
-        <f t="shared" ref="N585:N586" si="25">M585-L585</f>
+        <f t="shared" ref="N585:N586" si="33">M585-L585</f>
         <v>9.3428039999999992</v>
       </c>
       <c r="O585" s="13">
-        <f t="shared" ref="O585:O586" si="26">J585-M585</f>
+        <f t="shared" ref="O585:O586" si="34">J585-M585</f>
         <v>0.65719600000000078</v>
       </c>
       <c r="P585" s="13">
@@ -33868,11 +34030,11 @@
         <v>0.38398893899999997</v>
       </c>
       <c r="N586" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.38398893899999997</v>
       </c>
       <c r="O586" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.61601106100000003</v>
       </c>
       <c r="P586" s="13">
@@ -35675,11 +35837,11 @@
         <v>10.750400000000001</v>
       </c>
       <c r="N635" s="13">
-        <f t="shared" ref="N635:N636" si="27">M635-L635</f>
+        <f t="shared" ref="N635:N636" si="35">M635-L635</f>
         <v>10.750400000000001</v>
       </c>
       <c r="O635" s="13">
-        <f t="shared" ref="O635:O636" si="28">J635-M635</f>
+        <f t="shared" ref="O635:O636" si="36">J635-M635</f>
         <v>0.24959999999999916</v>
       </c>
       <c r="P635" s="13">
@@ -35740,11 +35902,11 @@
         <v>0.52132228000000003</v>
       </c>
       <c r="N636" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.52132228000000003</v>
       </c>
       <c r="O636" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.47867771999999997</v>
       </c>
       <c r="P636" s="13">
@@ -35873,11 +36035,11 @@
         <v>14.891550840000001</v>
       </c>
       <c r="N639" s="13">
-        <f t="shared" ref="N639:N640" si="29">M639-L639</f>
+        <f t="shared" ref="N639:N640" si="37">M639-L639</f>
         <v>14.791550840000001</v>
       </c>
       <c r="O639" s="13">
-        <f t="shared" ref="O639:O640" si="30">J639-M639</f>
+        <f t="shared" ref="O639:O640" si="38">J639-M639</f>
         <v>0.10844915999999927</v>
       </c>
       <c r="P639" s="13">
@@ -35938,11 +36100,11 @@
         <v>0.240070385</v>
       </c>
       <c r="N640" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.240070385</v>
       </c>
       <c r="O640" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.759929615</v>
       </c>
       <c r="P640" s="13">
@@ -36081,11 +36243,11 @@
         <v>10.043174459999999</v>
       </c>
       <c r="N643" s="13">
-        <f t="shared" ref="N643:N644" si="31">M643-L643</f>
+        <f t="shared" ref="N643:N644" si="39">M643-L643</f>
         <v>9.8431744600000002</v>
       </c>
       <c r="O643" s="13">
-        <f t="shared" ref="O643:O644" si="32">J643-M643</f>
+        <f t="shared" ref="O643:O644" si="40">J643-M643</f>
         <v>0.95682554000000053</v>
       </c>
       <c r="P643" s="13">
@@ -36146,11 +36308,11 @@
         <v>0.38141799999999998</v>
       </c>
       <c r="N644" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.13141799999999998</v>
       </c>
       <c r="O644" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.61858199999999997</v>
       </c>
       <c r="P644" s="13">
@@ -36569,11 +36731,11 @@
         <v>16.033897419999999</v>
       </c>
       <c r="N655" s="13">
-        <f t="shared" ref="N655:N656" si="33">M655-L655</f>
+        <f t="shared" ref="N655:N656" si="41">M655-L655</f>
         <v>15.783897419999999</v>
       </c>
       <c r="O655" s="13">
-        <f t="shared" ref="O655:O656" si="34">J655-M655</f>
+        <f t="shared" ref="O655:O656" si="42">J655-M655</f>
         <v>-3.3897419999998846E-2</v>
       </c>
       <c r="P655" s="13">
@@ -36634,11 +36796,11 @@
         <v>0.61543636800000001</v>
       </c>
       <c r="N656" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0.415436368</v>
       </c>
       <c r="O656" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>0.38456363199999999</v>
       </c>
       <c r="P656" s="13">
@@ -37570,11 +37732,11 @@
         <v>10.74112635</v>
       </c>
       <c r="N681" s="13">
-        <f t="shared" ref="N681:N682" si="35">M681-L681</f>
+        <f t="shared" ref="N681:N682" si="43">M681-L681</f>
         <v>10.441126349999999</v>
       </c>
       <c r="O681" s="13">
-        <f t="shared" ref="O681:O682" si="36">J681-M681</f>
+        <f t="shared" ref="O681:O682" si="44">J681-M681</f>
         <v>1.25887365</v>
       </c>
       <c r="P681" s="13">
@@ -37635,11 +37797,11 @@
         <v>0.73569898</v>
       </c>
       <c r="N682" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.63569898000000002</v>
       </c>
       <c r="O682" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0.26430102</v>
       </c>
       <c r="P682" s="13">
@@ -37697,11 +37859,11 @@
         <v>15.395584489999999</v>
       </c>
       <c r="N683" s="13">
-        <f t="shared" ref="N683:N684" si="37">M683-L683</f>
+        <f t="shared" ref="N683:N684" si="45">M683-L683</f>
         <v>15.245584489999999</v>
       </c>
       <c r="O683" s="13">
-        <f t="shared" ref="O683:O684" si="38">J683-M683</f>
+        <f t="shared" ref="O683:O684" si="46">J683-M683</f>
         <v>0.60441551000000082</v>
       </c>
       <c r="P683" s="13">
@@ -37762,11 +37924,11 @@
         <v>0.45608067600000002</v>
       </c>
       <c r="N684" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.15608067600000003</v>
       </c>
       <c r="O684" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.54391932399999998</v>
       </c>
       <c r="P684" s="13">
@@ -39233,11 +39395,11 @@
         <v>10.269065899999999</v>
       </c>
       <c r="N720" s="13">
-        <f t="shared" ref="N720:N721" si="39">M720-L720</f>
+        <f t="shared" ref="N720:N721" si="47">M720-L720</f>
         <v>10.1690659</v>
       </c>
       <c r="O720" s="13">
-        <f t="shared" ref="O720:O721" si="40">J720-M720</f>
+        <f t="shared" ref="O720:O721" si="48">J720-M720</f>
         <v>0.7309341000000007</v>
       </c>
       <c r="P720" s="13">
@@ -39298,11 +39460,11 @@
         <v>0.820899665</v>
       </c>
       <c r="N721" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.67089966499999998</v>
       </c>
       <c r="O721" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.179100335</v>
       </c>
       <c r="P721" s="13">
@@ -39434,7 +39596,7 @@
         <v>10.703850000000001</v>
       </c>
       <c r="O724" s="13">
-        <f t="shared" ref="O724:O727" si="41">J724-M724</f>
+        <f t="shared" ref="O724:O727" si="49">J724-M724</f>
         <v>1.1961499999999994</v>
       </c>
       <c r="P724" s="13">
@@ -39499,7 +39661,7 @@
         <v>0.77653735700000004</v>
       </c>
       <c r="O725" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.22346264299999996</v>
       </c>
       <c r="P725" s="13">
@@ -39561,7 +39723,7 @@
         <v>12.8895</v>
       </c>
       <c r="O726" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>-0.18950000000000067</v>
       </c>
       <c r="P726" s="13">
@@ -39626,7 +39788,7 @@
         <v>0.48541592900000002</v>
       </c>
       <c r="O727" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.51458407100000003</v>
       </c>
       <c r="P727" s="13">
@@ -42255,7 +42417,7 @@
         <v>14.77081718</v>
       </c>
       <c r="O799" s="13">
-        <f t="shared" ref="O799:O800" si="42">J799-M799</f>
+        <f t="shared" ref="O799:O800" si="50">J799-M799</f>
         <v>1.1291828200000005</v>
       </c>
       <c r="P799" s="13">
@@ -42320,7 +42482,7 @@
         <v>0.296651204</v>
       </c>
       <c r="O800" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.703348796</v>
       </c>
       <c r="P800" s="13">
@@ -42591,11 +42753,11 @@
         <v>15.656198679999999</v>
       </c>
       <c r="N807" s="13">
-        <f t="shared" ref="N807:N808" si="43">M807-L807</f>
+        <f t="shared" ref="N807:N808" si="51">M807-L807</f>
         <v>15.55619868</v>
       </c>
       <c r="O807" s="13">
-        <f t="shared" ref="O807:O808" si="44">J807-M807</f>
+        <f t="shared" ref="O807:O808" si="52">J807-M807</f>
         <v>0.34380132000000074</v>
       </c>
       <c r="P807" s="13">
@@ -42656,11 +42818,11 @@
         <v>0.51976313100000004</v>
       </c>
       <c r="N808" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.41976313100000007</v>
       </c>
       <c r="O808" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.48023686899999996</v>
       </c>
       <c r="P808" s="13">
@@ -43278,7 +43440,7 @@
         <v>10.00779</v>
       </c>
       <c r="O825" s="13">
-        <f t="shared" ref="O825:O826" si="45">J825-M825</f>
+        <f t="shared" ref="O825:O826" si="53">J825-M825</f>
         <v>0.79221000000000075</v>
       </c>
       <c r="P825" s="13">
@@ -43343,7 +43505,7 @@
         <v>0.11874547800000002</v>
       </c>
       <c r="O826" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.58125452200000005</v>
       </c>
       <c r="P826" s="13">
@@ -43552,7 +43714,7 @@
         <v>8.5590960000000003</v>
       </c>
       <c r="O831" s="13">
-        <f t="shared" ref="O831:O832" si="46">J831-M831</f>
+        <f t="shared" ref="O831:O832" si="54">J831-M831</f>
         <v>0.24090400000000045</v>
       </c>
       <c r="P831" s="13">
@@ -43617,7 +43779,7 @@
         <v>0.10391500000000004</v>
       </c>
       <c r="O832" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.59608499999999998</v>
       </c>
       <c r="P832" s="13">
@@ -44106,7 +44268,7 @@
         <v>11.13228</v>
       </c>
       <c r="N845" s="13">
-        <f t="shared" ref="N845:N846" si="47">M845-L845</f>
+        <f t="shared" ref="N845:N846" si="55">M845-L845</f>
         <v>11.03228</v>
       </c>
       <c r="O845" s="13"/>
@@ -44162,7 +44324,7 @@
         <v>0.59741599999999995</v>
       </c>
       <c r="N846" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.29741599999999996</v>
       </c>
       <c r="O846" s="13"/>
@@ -44438,7 +44600,7 @@
         <v>7.4593078909999999</v>
       </c>
       <c r="O853" s="13">
-        <f t="shared" ref="O853" si="48">J853-M853</f>
+        <f t="shared" ref="O853" si="56">J853-M853</f>
         <v>0.39069210899999973</v>
       </c>
       <c r="P853" s="13">
@@ -44900,11 +45062,11 @@
         <v>8.5416628620000008</v>
       </c>
       <c r="N865" s="13">
-        <f t="shared" ref="N865:N866" si="49">M865-L865</f>
+        <f t="shared" ref="N865:N866" si="57">M865-L865</f>
         <v>8.4416628620000012</v>
       </c>
       <c r="O865" s="13">
-        <f t="shared" ref="O865:O866" si="50">J865-M865</f>
+        <f t="shared" ref="O865:O866" si="58">J865-M865</f>
         <v>0.4583371379999992</v>
       </c>
       <c r="P865" s="47">
@@ -44965,11 +45127,11 @@
         <v>0.19729874999999999</v>
       </c>
       <c r="N866" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>9.7298749999999989E-2</v>
       </c>
       <c r="O866" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0.80270125000000003</v>
       </c>
       <c r="P866" s="13">
@@ -45110,7 +45272,7 @@
         <v>16.634249999999998</v>
       </c>
       <c r="O869" s="13">
-        <f t="shared" ref="O869:O870" si="51">J869-M869</f>
+        <f t="shared" ref="O869:O870" si="59">J869-M869</f>
         <v>0.31575000000000131</v>
       </c>
       <c r="P869" s="13">
@@ -45175,7 +45337,7 @@
         <v>8.1780000000000019E-2</v>
       </c>
       <c r="O870" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0.76822000000000001</v>
       </c>
       <c r="P870" s="13">
@@ -49403,7 +49565,7 @@
         <v>10.48081</v>
       </c>
       <c r="O979" s="13">
-        <f t="shared" ref="O979:O980" si="52">J979-M979</f>
+        <f t="shared" ref="O979:O980" si="60">J979-M979</f>
         <v>0.31919000000000075</v>
       </c>
       <c r="P979" s="13">
@@ -49468,7 +49630,7 @@
         <v>7.9796299999999987E-2</v>
       </c>
       <c r="O980" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0.62020370000000002</v>
       </c>
       <c r="P980" s="13">
@@ -50587,7 +50749,7 @@
         <v>0.41728300000000002</v>
       </c>
       <c r="N1008" s="10">
-        <f t="shared" ref="N1008:N1010" si="53">M1008-L1008</f>
+        <f t="shared" ref="N1008:N1010" si="61">M1008-L1008</f>
         <v>0.31728299999999998</v>
       </c>
       <c r="O1008" s="64"/>
@@ -50632,7 +50794,7 @@
       <c r="H1009" s="8">
         <v>1</v>
       </c>
-      <c r="I1009" s="66">
+      <c r="I1009" s="65">
         <v>99</v>
       </c>
       <c r="J1009" s="45">
@@ -50648,11 +50810,11 @@
         <v>14.861750000000001</v>
       </c>
       <c r="N1009" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>14.661750000000001</v>
       </c>
       <c r="O1009" s="64">
-        <f t="shared" ref="O1008:O1015" si="54">J1009-N1009</f>
+        <f t="shared" ref="O1008:O1015" si="62">J1009-N1009</f>
         <v>0.33824999999999861</v>
       </c>
       <c r="P1009" s="13">
@@ -50713,11 +50875,11 @@
         <v>0.36563600000000002</v>
       </c>
       <c r="N1010" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.11563600000000002</v>
       </c>
       <c r="O1010" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.88436399999999993</v>
       </c>
       <c r="P1010" s="13">
@@ -50948,7 +51110,7 @@
         <v>14.43051</v>
       </c>
       <c r="O1014" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.56949000000000005</v>
       </c>
       <c r="P1014" s="13">
@@ -51013,7 +51175,7 @@
         <v>0.57710055100000002</v>
       </c>
       <c r="O1015" s="64">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0.42289944899999998</v>
       </c>
       <c r="P1015" s="13">
@@ -52560,7 +52722,7 @@
         <v>10.1928</v>
       </c>
       <c r="O1057" s="13">
-        <f t="shared" ref="O1057:O1058" si="55">J1057-M1057</f>
+        <f t="shared" ref="O1057:O1058" si="63">J1057-M1057</f>
         <v>0.60720000000000063</v>
       </c>
       <c r="P1057" s="13">
@@ -52627,7 +52789,7 @@
         <v>0.21173387299999999</v>
       </c>
       <c r="O1058" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0.63826612700000007</v>
       </c>
       <c r="P1058" s="13">
@@ -52994,7 +53156,7 @@
         <v>9.8452300000000008</v>
       </c>
       <c r="O1068" s="13">
-        <f t="shared" ref="O1068:O1069" si="56">J1068-M1068</f>
+        <f t="shared" ref="O1068:O1069" si="64">J1068-M1068</f>
         <v>-4.5230000000000103E-2</v>
       </c>
       <c r="P1068" s="13">
@@ -53059,7 +53221,7 @@
         <v>8.5246437000000008E-2</v>
       </c>
       <c r="O1069" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0.61475356300000006</v>
       </c>
       <c r="P1069" s="13">
@@ -53306,7 +53468,7 @@
         <v>9.7354988300000009</v>
       </c>
       <c r="O1075" s="13">
-        <f t="shared" ref="O1075:O1085" si="57">J1075-M1075</f>
+        <f t="shared" ref="O1075:O1085" si="65">J1075-M1075</f>
         <v>8.0645011699999998</v>
       </c>
       <c r="P1075" s="13">
@@ -53369,7 +53531,7 @@
         <v>8.7410094999999965E-2</v>
       </c>
       <c r="O1076" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>1.512589905</v>
       </c>
       <c r="P1076" s="13">
@@ -53431,7 +53593,7 @@
         <v>9.1314299999999999</v>
       </c>
       <c r="O1077" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-0.28143000000000029</v>
       </c>
       <c r="P1077" s="13">
@@ -53496,7 +53658,7 @@
         <v>7.6126087999999981E-2</v>
       </c>
       <c r="O1078" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>18.023873911999999</v>
       </c>
       <c r="P1078" s="13">
@@ -53558,7 +53720,7 @@
         <v>11.071349229999999</v>
       </c>
       <c r="O1079" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-7.1349229999999153E-2</v>
       </c>
       <c r="P1079" s="13">
@@ -53619,11 +53781,11 @@
         <v>0.364333513</v>
       </c>
       <c r="N1080" s="13">
-        <f t="shared" ref="N1080:N1081" si="58">M1080-L1080</f>
+        <f t="shared" ref="N1080:N1081" si="66">M1080-L1080</f>
         <v>6.4333513000000009E-2</v>
       </c>
       <c r="O1080" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.63566648699999995</v>
       </c>
       <c r="P1080" s="13">
@@ -53681,11 +53843,11 @@
         <v>12.229699999999999</v>
       </c>
       <c r="N1081" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>12.229699999999999</v>
       </c>
       <c r="O1081" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>7.7703000000000007</v>
       </c>
       <c r="P1081" s="13">
@@ -53746,11 +53908,11 @@
         <v>0.16772699999999999</v>
       </c>
       <c r="N1082" s="13">
-        <f t="shared" ref="N1082:N1084" si="59">M1082-L1082</f>
+        <f t="shared" ref="N1082:N1084" si="67">M1082-L1082</f>
         <v>6.7726999999999982E-2</v>
       </c>
       <c r="O1082" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>5.3322729999999998</v>
       </c>
       <c r="P1082" s="13">
@@ -53808,11 +53970,11 @@
         <v>12.433941280000001</v>
       </c>
       <c r="N1083" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>12.333941280000001</v>
       </c>
       <c r="O1083" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-0.43394128000000087</v>
       </c>
       <c r="P1083" s="13">
@@ -53873,11 +54035,11 @@
         <v>0.285492723</v>
       </c>
       <c r="N1084" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.13549272300000001</v>
       </c>
       <c r="O1084" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.71450727700000005</v>
       </c>
       <c r="P1084" s="13">
@@ -53935,7 +54097,7 @@
         <v>7.8574909999999996</v>
       </c>
       <c r="O1085" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-7.8574909999999996</v>
       </c>
       <c r="P1085" s="13">
@@ -57532,7 +57694,7 @@
         <v>11.245163</v>
       </c>
       <c r="O1185" s="13">
-        <f t="shared" ref="O1185:O1186" si="60">J1185-M1185</f>
+        <f t="shared" ref="O1185:O1186" si="68">J1185-M1185</f>
         <v>-0.34516299999999944</v>
       </c>
       <c r="P1185" s="13">
@@ -57598,7 +57760,7 @@
         <v>0.16325105600000001</v>
       </c>
       <c r="O1186" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.53674894399999995</v>
       </c>
       <c r="P1186" s="13">
@@ -57787,7 +57949,7 @@
         <v>0.66669999999999996</v>
       </c>
       <c r="N1190" s="10">
-        <f t="shared" ref="N1190:N1191" si="61">M1190-L1190</f>
+        <f t="shared" ref="N1190:N1191" si="69">M1190-L1190</f>
         <v>0.51669999999999994</v>
       </c>
       <c r="O1190" s="64"/>
@@ -68133,6 +68295,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
+    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100509933DE4E18D742BF077FC09341733F" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbfec929b0c2dc5d1a2f1df8704208d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5f6b1945-c4e1-49f9-9f6e-e50035f04b8f" xmlns:ns3="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd65c85cd32e0066f09b6320aed01c31" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -68474,35 +68663,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Photographer xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <MediaContent xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab"/>
-    <Field_x0020_Trip xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Testlisttostatewhatisineachfolder xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Region xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Extra xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Data_x0020_Type xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <Site xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-    <site_x0020_and_x0020_code xmlns="3efc3888-bfa0-43bf-9deb-f7d6376e51ab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179E103B-F058-4CB9-BEA1-5771FF1ED3E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68510,5 +68672,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179E103B-F058-4CB9-BEA1-5771FF1ED3E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94050B06-1F88-4324-BC97-A6E72A7473FF}"/>
 </file>